--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15998" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -463,8 +463,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -482,6 +482,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -693,14 +761,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="53.1875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="53.1640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>MPCbS Max Potential Capacity by Source</t>
@@ -711,13 +779,11 @@
           <t>California</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>&lt;- Enter state name here</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+      <c r="C1" s="66" t="n">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="B2" s="12">
         <f>LOOKUP(B1,H3:I52,I3:I52)</f>
         <v/>
@@ -733,7 +799,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Source:</t>
@@ -755,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4">
       <c r="B4" s="12" t="inlineStr">
         <is>
           <t>National Renewable Energy Laboratory</t>
@@ -772,7 +838,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="B5" s="7" t="n">
         <v>2012</v>
       </c>
@@ -787,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="B6" s="12" t="inlineStr">
         <is>
           <t>U.S. Renewable Energy Technical Potentials: A GIS-Based Analysis</t>
@@ -804,7 +870,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>http://www.nrel.gov/docs/fy12osti/51946.pdf</t>
@@ -821,7 +887,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Figures 1-6</t>
@@ -838,7 +904,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="H9" s="6" t="inlineStr">
         <is>
           <t>Connecticut</t>
@@ -850,7 +916,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Onshore Wind</t>
@@ -867,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Department of Energy</t>
@@ -884,7 +950,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="B12" s="7" t="n">
         <v>2018</v>
       </c>
@@ -899,7 +965,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="B13" s="12" t="inlineStr">
         <is>
           <t>US Installed and Potential Wind Power Capacity and Generation</t>
@@ -916,7 +982,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="B14" s="12" t="inlineStr">
         <is>
           <t>https://windexchange.energy.gov/maps-data/321</t>
@@ -933,7 +999,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="B15" s="12" t="inlineStr">
         <is>
           <t>"Potential"</t>
@@ -950,7 +1016,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="H16" s="6" t="inlineStr">
         <is>
           <t>Indiana</t>
@@ -962,7 +1028,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Hydropower supplement (See worksheet for details)</t>
@@ -979,7 +1045,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="58">
+    <row r="18">
       <c r="B18" s="12" t="inlineStr">
         <is>
           <t>US Department of Energy</t>
@@ -996,7 +1062,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="58">
+    <row r="19">
       <c r="B19" s="7" t="n">
         <v>2016</v>
       </c>
@@ -1011,7 +1077,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="58">
+    <row r="20">
       <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Chapter 3: Assessment of National Hydropower Potential</t>
@@ -2413,23 +2479,23 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="12" customWidth="1" style="58" min="1" max="1"/>
-    <col width="15.8125" customWidth="1" style="58" min="2" max="2"/>
+    <col width="15.83203125" customWidth="1" style="58" min="2" max="2"/>
     <col width="20.5" customWidth="1" style="58" min="3" max="3"/>
-    <col width="7.6875" customWidth="1" style="58" min="4" max="4"/>
-    <col width="19.6875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="13.3125" customWidth="1" style="58" min="6" max="6"/>
-    <col width="10.3125" customWidth="1" style="58" min="7" max="7"/>
-    <col width="20.6875" customWidth="1" style="58" min="8" max="8"/>
-    <col width="20.8125" customWidth="1" style="58" min="9" max="9"/>
+    <col width="7.6640625" customWidth="1" style="58" min="4" max="4"/>
+    <col width="19.6640625" customWidth="1" style="58" min="5" max="5"/>
+    <col width="13.33203125" customWidth="1" style="58" min="6" max="6"/>
+    <col width="10.33203125" customWidth="1" style="58" min="7" max="7"/>
+    <col width="20.6640625" customWidth="1" style="58" min="8" max="8"/>
+    <col width="20.83203125" customWidth="1" style="58" min="9" max="9"/>
     <col width="19.5" customWidth="1" style="58" min="10" max="10"/>
     <col width="18.5" customWidth="1" style="58" min="11" max="11"/>
-    <col width="7.6875" customWidth="1" style="58" min="12" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="12" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -2439,7 +2505,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="43" t="inlineStr">
         <is>
           <t>NREL 2012 Study Data</t>
@@ -2452,7 +2518,7 @@
       <c r="F2" s="43" t="n"/>
       <c r="I2" s="1" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Because much of this data is &lt;1 GW, I use a 60% capacity</t>
@@ -2470,7 +2536,7 @@
       </c>
       <c r="I3" s="29" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>State</t>
@@ -2503,7 +2569,7 @@
       </c>
       <c r="I4" s="29" t="n"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -2522,7 +2588,7 @@
       </c>
       <c r="I5" s="29" t="n"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -2541,7 +2607,7 @@
       </c>
       <c r="I6" s="29" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -2560,7 +2626,7 @@
       </c>
       <c r="I7" s="29" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -2579,7 +2645,7 @@
       </c>
       <c r="I8" s="29" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -2598,7 +2664,7 @@
       </c>
       <c r="I9" s="29" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -2617,7 +2683,7 @@
       </c>
       <c r="I10" s="29" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -2636,7 +2702,7 @@
       </c>
       <c r="I11" s="29" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -2655,7 +2721,7 @@
       </c>
       <c r="I12" s="29" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -2674,7 +2740,7 @@
       </c>
       <c r="I13" s="29" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -2693,7 +2759,7 @@
       </c>
       <c r="I14" s="29" t="n"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -2731,7 +2797,7 @@
       <c r="Y15" s="29" t="n"/>
       <c r="Z15" s="29" t="n"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -2769,7 +2835,7 @@
       <c r="Y16" s="29" t="n"/>
       <c r="Z16" s="29" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -2807,7 +2873,7 @@
       <c r="Y17" s="29" t="n"/>
       <c r="Z17" s="29" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2845,7 +2911,7 @@
       <c r="Y18" s="29" t="n"/>
       <c r="Z18" s="29" t="n"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -2883,7 +2949,7 @@
       <c r="Y19" s="29" t="n"/>
       <c r="Z19" s="29" t="n"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -5645,45 +5711,31 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="37.5" customWidth="1" style="58" min="8" max="8"/>
-    <col width="20.8125" customWidth="1" style="58" min="10" max="10"/>
+    <col width="20.83203125" customWidth="1" style="58" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="66" t="inlineStr">
+      <c r="A1" s="67" t="inlineStr">
         <is>
           <t>Observed and Total Population for the U.S. and the States, 2010-2040</t>
         </is>
       </c>
-      <c r="B1" s="67" t="n"/>
-      <c r="C1" s="67" t="n"/>
-      <c r="D1" s="67" t="n"/>
-      <c r="E1" s="67" t="n"/>
-      <c r="F1" s="67" t="n"/>
-      <c r="G1" s="67" t="n"/>
-      <c r="H1" s="67" t="n"/>
-      <c r="I1" s="67" t="n"/>
-      <c r="J1" s="67" t="n"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    </row>
+    <row r="2">
       <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Updated on Dec 2018 by the Weldon Cooper Center for Public Service, Demographics Research Group, www.demographics.coopercenter.org</t>
         </is>
       </c>
-      <c r="B2" s="67" t="n"/>
-      <c r="C2" s="67" t="n"/>
-      <c r="D2" s="67" t="n"/>
-      <c r="E2" s="67" t="n"/>
-      <c r="F2" s="67" t="n"/>
       <c r="G2" s="20" t="n"/>
       <c r="H2" s="20" t="n"/>
       <c r="I2" s="20" t="n"/>
       <c r="J2" s="20" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="69" t="inlineStr">
         <is>
           <t>FIPS</t>
@@ -5699,17 +5751,12 @@
           <t>Total Population</t>
         </is>
       </c>
-      <c r="D3" s="67" t="n"/>
-      <c r="E3" s="67" t="n"/>
-      <c r="F3" s="67" t="n"/>
       <c r="G3" s="20" t="n"/>
       <c r="H3" s="20" t="n"/>
       <c r="I3" s="20" t="n"/>
       <c r="J3" s="20" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
-      <c r="A4" s="67" t="n"/>
-      <c r="B4" s="67" t="n"/>
+    <row r="4">
       <c r="C4" s="10" t="n">
         <v>2020</v>
       </c>
@@ -5729,7 +5776,7 @@
       <c r="I4" s="20" t="n"/>
       <c r="J4" s="20" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="A5" s="14" t="n"/>
       <c r="B5" s="15" t="inlineStr">
         <is>
@@ -5754,7 +5801,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="A6" s="10" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +5837,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="A7" s="24" t="n">
         <v>2</v>
       </c>
@@ -5816,7 +5863,7 @@
       <c r="I7" s="20" t="n"/>
       <c r="J7" s="20" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="A8" s="10" t="n">
         <v>4</v>
       </c>
@@ -5846,7 +5893,7 @@
       <c r="I8" s="20" t="n"/>
       <c r="J8" s="20" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="A9" s="24" t="n">
         <v>5</v>
       </c>
@@ -5882,7 +5929,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="A10" s="10" t="n">
         <v>6</v>
       </c>
@@ -5918,7 +5965,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="A11" s="24" t="n">
         <v>8</v>
       </c>
@@ -5954,7 +6001,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="A12" s="10" t="n">
         <v>9</v>
       </c>
@@ -5990,7 +6037,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="A13" s="24" t="n">
         <v>10</v>
       </c>
@@ -6026,7 +6073,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="A14" s="10" t="n">
         <v>11</v>
       </c>
@@ -6052,7 +6099,7 @@
       <c r="I14" s="20" t="n"/>
       <c r="J14" s="20" t="n"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="A15" s="24" t="n">
         <v>12</v>
       </c>
@@ -6088,7 +6135,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="A16" s="10" t="n">
         <v>13</v>
       </c>
@@ -6118,7 +6165,7 @@
       <c r="I16" s="20" t="n"/>
       <c r="J16" s="20" t="n"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="A17" s="24" t="n">
         <v>15</v>
       </c>
@@ -6144,7 +6191,7 @@
       <c r="I17" s="20" t="n"/>
       <c r="J17" s="20" t="n"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="58">
+    <row r="18">
       <c r="A18" s="10" t="n">
         <v>16</v>
       </c>
@@ -6174,7 +6221,7 @@
       <c r="I18" s="20" t="n"/>
       <c r="J18" s="20" t="n"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="58">
+    <row r="19">
       <c r="A19" s="24" t="n">
         <v>17</v>
       </c>
@@ -6204,7 +6251,7 @@
       <c r="I19" s="20" t="n"/>
       <c r="J19" s="20" t="n"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="58">
+    <row r="20">
       <c r="A20" s="10" t="n">
         <v>18</v>
       </c>
@@ -6234,7 +6281,7 @@
       <c r="I20" s="20" t="n"/>
       <c r="J20" s="20" t="n"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="58">
+    <row r="21">
       <c r="A21" s="24" t="n">
         <v>19</v>
       </c>
@@ -6260,7 +6307,7 @@
       <c r="I21" s="20" t="n"/>
       <c r="J21" s="20" t="n"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="58">
+    <row r="22">
       <c r="A22" s="10" t="n">
         <v>20</v>
       </c>
@@ -6292,7 +6339,7 @@
       </c>
       <c r="J22" s="20" t="n"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="58">
+    <row r="23">
       <c r="A23" s="24" t="n">
         <v>21</v>
       </c>
@@ -6324,7 +6371,7 @@
       </c>
       <c r="J23" s="20" t="n"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="58">
+    <row r="24">
       <c r="A24" s="10" t="n">
         <v>22</v>
       </c>
@@ -6350,7 +6397,7 @@
       <c r="I24" s="20" t="n"/>
       <c r="J24" s="20" t="n"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="58">
+    <row r="25">
       <c r="A25" s="24" t="n">
         <v>23</v>
       </c>
@@ -6376,7 +6423,7 @@
       <c r="I25" s="20" t="n"/>
       <c r="J25" s="20" t="n"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="58">
+    <row r="26">
       <c r="A26" s="10" t="n">
         <v>24</v>
       </c>
@@ -6402,7 +6449,7 @@
       <c r="I26" s="20" t="n"/>
       <c r="J26" s="20" t="n"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="58">
+    <row r="27">
       <c r="A27" s="24" t="n">
         <v>25</v>
       </c>
@@ -6428,7 +6475,7 @@
       <c r="I27" s="20" t="n"/>
       <c r="J27" s="20" t="n"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="58">
+    <row r="28">
       <c r="A28" s="10" t="n">
         <v>26</v>
       </c>
@@ -6454,7 +6501,7 @@
       <c r="I28" s="20" t="n"/>
       <c r="J28" s="20" t="n"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="58">
+    <row r="29">
       <c r="A29" s="24" t="n">
         <v>27</v>
       </c>
@@ -6480,7 +6527,7 @@
       <c r="I29" s="20" t="n"/>
       <c r="J29" s="20" t="n"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="58">
+    <row r="30">
       <c r="A30" s="10" t="n">
         <v>28</v>
       </c>
@@ -6506,7 +6553,7 @@
       <c r="I30" s="20" t="n"/>
       <c r="J30" s="20" t="n"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="58">
+    <row r="31">
       <c r="A31" s="24" t="n">
         <v>29</v>
       </c>
@@ -6532,7 +6579,7 @@
       <c r="I31" s="20" t="n"/>
       <c r="J31" s="20" t="n"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="58">
+    <row r="32">
       <c r="A32" s="10" t="n">
         <v>30</v>
       </c>
@@ -6558,7 +6605,7 @@
       <c r="I32" s="20" t="n"/>
       <c r="J32" s="20" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="58">
+    <row r="33">
       <c r="A33" s="24" t="n">
         <v>31</v>
       </c>
@@ -6584,7 +6631,7 @@
       <c r="I33" s="20" t="n"/>
       <c r="J33" s="20" t="n"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="58">
+    <row r="34">
       <c r="A34" s="10" t="n">
         <v>32</v>
       </c>
@@ -6610,7 +6657,7 @@
       <c r="I34" s="20" t="n"/>
       <c r="J34" s="20" t="n"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="58">
+    <row r="35">
       <c r="A35" s="24" t="n">
         <v>33</v>
       </c>
@@ -6636,7 +6683,7 @@
       <c r="I35" s="20" t="n"/>
       <c r="J35" s="20" t="n"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="58">
+    <row r="36">
       <c r="A36" s="10" t="n">
         <v>34</v>
       </c>
@@ -6662,7 +6709,7 @@
       <c r="I36" s="20" t="n"/>
       <c r="J36" s="20" t="n"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="58">
+    <row r="37">
       <c r="A37" s="24" t="n">
         <v>35</v>
       </c>
@@ -6688,7 +6735,7 @@
       <c r="I37" s="20" t="n"/>
       <c r="J37" s="20" t="n"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="58">
+    <row r="38">
       <c r="A38" s="10" t="n">
         <v>36</v>
       </c>
@@ -6714,7 +6761,7 @@
       <c r="I38" s="20" t="n"/>
       <c r="J38" s="20" t="n"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="58">
+    <row r="39">
       <c r="A39" s="24" t="n">
         <v>37</v>
       </c>
@@ -6740,7 +6787,7 @@
       <c r="I39" s="20" t="n"/>
       <c r="J39" s="20" t="n"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="58">
+    <row r="40">
       <c r="A40" s="10" t="n">
         <v>38</v>
       </c>
@@ -6766,7 +6813,7 @@
       <c r="I40" s="20" t="n"/>
       <c r="J40" s="20" t="n"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="58">
+    <row r="41">
       <c r="A41" s="24" t="n">
         <v>39</v>
       </c>
@@ -6792,7 +6839,7 @@
       <c r="I41" s="20" t="n"/>
       <c r="J41" s="20" t="n"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="58">
+    <row r="42">
       <c r="A42" s="10" t="n">
         <v>40</v>
       </c>
@@ -6818,7 +6865,7 @@
       <c r="I42" s="20" t="n"/>
       <c r="J42" s="20" t="n"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="58">
+    <row r="43">
       <c r="A43" s="24" t="n">
         <v>41</v>
       </c>
@@ -6844,7 +6891,7 @@
       <c r="I43" s="20" t="n"/>
       <c r="J43" s="20" t="n"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="58">
+    <row r="44">
       <c r="A44" s="10" t="n">
         <v>42</v>
       </c>
@@ -6870,7 +6917,7 @@
       <c r="I44" s="20" t="n"/>
       <c r="J44" s="20" t="n"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="58">
+    <row r="45">
       <c r="A45" s="24" t="n">
         <v>44</v>
       </c>
@@ -6896,7 +6943,7 @@
       <c r="I45" s="20" t="n"/>
       <c r="J45" s="20" t="n"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="58">
+    <row r="46">
       <c r="A46" s="10" t="n">
         <v>45</v>
       </c>
@@ -6922,7 +6969,7 @@
       <c r="I46" s="20" t="n"/>
       <c r="J46" s="20" t="n"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="58">
+    <row r="47">
       <c r="A47" s="24" t="n">
         <v>46</v>
       </c>
@@ -6948,7 +6995,7 @@
       <c r="I47" s="20" t="n"/>
       <c r="J47" s="20" t="n"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="58">
+    <row r="48">
       <c r="A48" s="10" t="n">
         <v>47</v>
       </c>
@@ -6974,7 +7021,7 @@
       <c r="I48" s="20" t="n"/>
       <c r="J48" s="20" t="n"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="58">
+    <row r="49">
       <c r="A49" s="24" t="n">
         <v>48</v>
       </c>
@@ -7000,7 +7047,7 @@
       <c r="I49" s="20" t="n"/>
       <c r="J49" s="20" t="n"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="58">
+    <row r="50">
       <c r="A50" s="10" t="n">
         <v>49</v>
       </c>
@@ -7026,7 +7073,7 @@
       <c r="I50" s="20" t="n"/>
       <c r="J50" s="20" t="n"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1" s="58">
+    <row r="51">
       <c r="A51" s="24" t="n">
         <v>50</v>
       </c>
@@ -7052,7 +7099,7 @@
       <c r="I51" s="20" t="n"/>
       <c r="J51" s="20" t="n"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1" s="58">
+    <row r="52">
       <c r="A52" s="10" t="n">
         <v>51</v>
       </c>
@@ -7078,7 +7125,7 @@
       <c r="I52" s="20" t="n"/>
       <c r="J52" s="20" t="n"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1" s="58">
+    <row r="53">
       <c r="A53" s="24" t="n">
         <v>53</v>
       </c>
@@ -7104,7 +7151,7 @@
       <c r="I53" s="20" t="n"/>
       <c r="J53" s="20" t="n"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1" s="58">
+    <row r="54">
       <c r="A54" s="10" t="n">
         <v>54</v>
       </c>
@@ -7130,7 +7177,7 @@
       <c r="I54" s="20" t="n"/>
       <c r="J54" s="20" t="n"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1" s="58">
+    <row r="55">
       <c r="A55" s="24" t="n">
         <v>55</v>
       </c>
@@ -7156,7 +7203,7 @@
       <c r="I55" s="20" t="n"/>
       <c r="J55" s="20" t="n"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1" s="58">
+    <row r="56">
       <c r="A56" s="10" t="n">
         <v>56</v>
       </c>
@@ -7182,14 +7229,12 @@
       <c r="I56" s="20" t="n"/>
       <c r="J56" s="20" t="n"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1" s="58">
+    <row r="57">
       <c r="A57" s="71" t="inlineStr">
         <is>
           <t>Subgroups may not sum to total due to rounding</t>
         </is>
       </c>
-      <c r="B57" s="67" t="n"/>
-      <c r="C57" s="67" t="n"/>
       <c r="D57" s="20" t="n"/>
       <c r="E57" s="20" t="n"/>
       <c r="F57" s="20" t="n"/>
@@ -7224,14 +7269,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="19.1875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="23.8125" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="19.1640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="23.83203125" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Electricity Source</t>
@@ -7243,7 +7288,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>hard coal</t>
@@ -7254,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>natural gas nonpeaker</t>
@@ -7265,7 +7310,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>nuclear</t>
@@ -7276,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
           <t>hydro</t>
@@ -7287,7 +7332,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="A6" s="12" t="inlineStr">
         <is>
           <t>onshore wind</t>
@@ -7298,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="A7" s="12" t="inlineStr">
         <is>
           <t>solar PV</t>
@@ -7309,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
           <t>solar thermal</t>
@@ -7320,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
           <t>biomass</t>
@@ -7331,7 +7376,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="A10" s="12" t="inlineStr">
         <is>
           <t>geothermal</t>
@@ -7342,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="A11" s="12" t="inlineStr">
         <is>
           <t>petroleum</t>
@@ -7353,7 +7398,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="A12" s="12" t="inlineStr">
         <is>
           <t>natural gas peaker</t>
@@ -7364,7 +7409,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="A13" s="12" t="inlineStr">
         <is>
           <t>lignite</t>
@@ -7375,7 +7420,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="A14" s="12" t="inlineStr">
         <is>
           <t>offshore wind</t>
@@ -7386,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="A15" s="12" t="inlineStr">
         <is>
           <t>crude oil</t>
@@ -7396,7 +7441,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="A16" s="12" t="inlineStr">
         <is>
           <t>heavy or residual fuel oil</t>
@@ -7406,7 +7451,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
           <t>municipal solid waste</t>
@@ -8415,12 +8460,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="58">
+    <row r="1" ht="16" customHeight="1" s="58">
       <c r="A1" s="30">
         <f>About!B2</f>
         <v/>
@@ -10550,14 +10595,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="11.6875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="58">
+    <row r="1" ht="16" customHeight="1" s="58">
       <c r="A1" s="30">
         <f>About!B2</f>
         <v/>
@@ -10567,7 +10612,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>State</t>
@@ -10584,7 +10629,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -10598,7 +10643,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -10612,7 +10657,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -10626,7 +10671,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -10640,7 +10685,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -10654,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -10668,7 +10713,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -10682,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -10696,7 +10741,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -10710,7 +10755,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -10724,7 +10769,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -10738,7 +10783,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -10752,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -10766,7 +10811,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -10780,7 +10825,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -10794,7 +10839,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -10808,7 +10853,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -12255,12 +12300,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -12270,7 +12315,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>State</t>
@@ -12287,7 +12332,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -12298,7 +12343,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -12309,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -12320,7 +12365,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -12331,7 +12376,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -12345,7 +12390,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -12356,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -12370,7 +12415,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -12384,7 +12429,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -12398,7 +12443,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -12409,7 +12454,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -12420,7 +12465,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -12431,7 +12476,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -12445,7 +12490,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -12456,7 +12501,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -12467,7 +12512,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -12478,7 +12523,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -13877,12 +13922,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="9.3125" customWidth="1" style="58" min="1" max="26"/>
+    <col width="9.33203125" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B1</f>
         <v/>
@@ -17417,14 +17462,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="11.6875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -17434,7 +17479,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>State</t>
@@ -17461,7 +17506,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -17483,7 +17528,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -17501,7 +17546,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -17519,7 +17564,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -17537,7 +17582,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -17555,7 +17600,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -17573,7 +17618,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -17591,7 +17636,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -17609,7 +17654,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -17627,7 +17672,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -17645,7 +17690,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -17663,7 +17708,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -17681,7 +17726,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -17699,7 +17744,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -17717,7 +17762,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -17735,7 +17780,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -17753,7 +17798,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -19332,14 +19377,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="12.1875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="12.1640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -19349,7 +19394,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>State</t>
@@ -19366,7 +19411,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -19380,7 +19425,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -19394,7 +19439,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -19408,7 +19453,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -19422,7 +19467,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -19436,7 +19481,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -19450,7 +19495,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -19464,7 +19509,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -19478,7 +19523,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -19492,7 +19537,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -19506,7 +19551,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -19526,7 +19571,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -19540,7 +19585,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -19554,7 +19599,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -19569,7 +19614,7 @@
       </c>
       <c r="F16" s="42" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -19583,7 +19628,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -19597,7 +19642,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -19611,7 +19656,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>LA</t>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5077E0-1E7A-4F94-A974-B998BDE33BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A4070-2693-4133-8526-4EA142A27361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="1020" windowWidth="12585" windowHeight="13980" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="75" windowWidth="14700" windowHeight="16200" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="239">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>CEC</t>
+  </si>
+  <si>
+    <t>build 10GW in BPMCCS, assume 21-10 is potential</t>
   </si>
 </sst>
 </file>
@@ -1147,6 +1150,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
@@ -1164,8 +1169,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7370,54 +7373,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="8">
         <v>2020</v>
       </c>
@@ -8737,11 +8740,11 @@
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -8765,35 +8768,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E6CB4D-7EA0-407B-BC73-DE2B39553891}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65">
+      <c r="A4" s="56">
         <v>44687</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="55" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8941,8 +8951,8 @@
         <v>163</v>
       </c>
       <c r="B14" s="9">
-        <f>21.8*1000</f>
-        <v>21800</v>
+        <f>(21.8*1000)-10000</f>
+        <v>11800</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15101,18 +15111,18 @@
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
       <c r="M3" s="27" t="s">
         <v>2</v>
       </c>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\California\CA-eps\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A4070-2693-4133-8526-4EA142A27361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5077E0-1E7A-4F94-A974-B998BDE33BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="75" windowWidth="14700" windowHeight="16200" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="1020" windowWidth="12585" windowHeight="13980" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="238">
   <si>
     <t>MPCbS Max Potential Capacity by Source</t>
   </si>
@@ -756,9 +756,6 @@
   </si>
   <si>
     <t>CEC</t>
-  </si>
-  <si>
-    <t>build 10GW in BPMCCS, assume 21-10 is potential</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1"/>
@@ -1169,6 +1164,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7373,54 +7370,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="8">
         <v>2020</v>
       </c>
@@ -8740,11 +8737,11 @@
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -8768,42 +8765,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E6CB4D-7EA0-407B-BC73-DE2B39553891}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="65">
         <v>44687</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="64" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8951,8 +8941,8 @@
         <v>163</v>
       </c>
       <c r="B14" s="9">
-        <f>(21.8*1000)-10000</f>
-        <v>11800</v>
+        <f>21.8*1000</f>
+        <v>21800</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15111,18 +15101,18 @@
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
       <c r="M3" s="27" t="s">
         <v>2</v>
       </c>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA191FB1-2DF5-438D-8B3A-0EAA9A0F0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB59B10A-A6FB-4CBF-A7F9-F6996F1A0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="1725" windowWidth="18645" windowHeight="9765" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Population by state" sheetId="4" r:id="rId2"/>
-    <sheet name="solar PV" sheetId="5" r:id="rId3"/>
-    <sheet name="solar thermal" sheetId="6" r:id="rId4"/>
-    <sheet name="offshore wind" sheetId="7" r:id="rId5"/>
-    <sheet name="onshore wind" sheetId="8" r:id="rId6"/>
-    <sheet name="bio" sheetId="9" r:id="rId7"/>
-    <sheet name="geothermal" sheetId="10" r:id="rId8"/>
-    <sheet name="hydro" sheetId="11" r:id="rId9"/>
-    <sheet name="Data" sheetId="2" r:id="rId10"/>
-    <sheet name="MPCbS" sheetId="3" r:id="rId11"/>
+    <sheet name="coal ban" sheetId="12" r:id="rId2"/>
+    <sheet name="Population by state" sheetId="4" r:id="rId3"/>
+    <sheet name="solar PV" sheetId="5" r:id="rId4"/>
+    <sheet name="solar thermal" sheetId="6" r:id="rId5"/>
+    <sheet name="offshore wind" sheetId="7" r:id="rId6"/>
+    <sheet name="onshore wind" sheetId="8" r:id="rId7"/>
+    <sheet name="bio" sheetId="9" r:id="rId8"/>
+    <sheet name="geothermal" sheetId="10" r:id="rId9"/>
+    <sheet name="hydro" sheetId="11" r:id="rId10"/>
+    <sheet name="Data" sheetId="2" r:id="rId11"/>
+    <sheet name="MPCbS" sheetId="3" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="282">
   <si>
     <t>Source:</t>
   </si>
@@ -879,6 +880,15 @@
   </si>
   <si>
     <t>Great Lakes, Upper Mississippi</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ban on new coal?</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1704,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1720,7 @@
         <v>109</v>
       </c>
       <c r="C1" s="24">
-        <v>45294</v>
+        <v>45301</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>100</v>
@@ -2206,6 +2216,2871 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034993D7-C303-48FF-99F6-02F9737AB03C}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="28" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" style="28" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="str">
+        <f>About!B2</f>
+        <v>CA</v>
+      </c>
+      <c r="B1" s="32">
+        <f>SUMIFS(D5:D54,A5:A54,A1)</f>
+        <v>6854.7945205479455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="32">
+        <f>8760*0.5</f>
+        <v>4380</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="32">
+        <v>4103</v>
+      </c>
+      <c r="C5" s="32">
+        <f t="shared" ref="C5:C54" si="0">B5/$F$4</f>
+        <v>0.93675799086757994</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" ref="D5:D54" si="1">C5*1000</f>
+        <v>936.75799086757991</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="32">
+        <v>23676</v>
+      </c>
+      <c r="C6" s="32">
+        <f t="shared" si="0"/>
+        <v>5.4054794520547942</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" si="1"/>
+        <v>5405.4794520547939</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1303</v>
+      </c>
+      <c r="C7" s="32">
+        <f t="shared" si="0"/>
+        <v>0.29748858447488585</v>
+      </c>
+      <c r="D7" s="32">
+        <f t="shared" si="1"/>
+        <v>297.48858447488584</v>
+      </c>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="32">
+        <v>6093</v>
+      </c>
+      <c r="C8" s="32">
+        <f t="shared" si="0"/>
+        <v>1.3910958904109589</v>
+      </c>
+      <c r="D8" s="32">
+        <f t="shared" si="1"/>
+        <v>1391.0958904109589</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="32">
+        <v>30024</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="0"/>
+        <v>6.8547945205479452</v>
+      </c>
+      <c r="D9" s="32">
+        <f t="shared" si="1"/>
+        <v>6854.7945205479455</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="32">
+        <v>7789</v>
+      </c>
+      <c r="C10" s="32">
+        <f t="shared" si="0"/>
+        <v>1.7783105022831049</v>
+      </c>
+      <c r="D10" s="32">
+        <f t="shared" si="1"/>
+        <v>1778.3105022831051</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="32">
+        <v>922</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" si="0"/>
+        <v>0.21050228310502284</v>
+      </c>
+      <c r="D11" s="32">
+        <f t="shared" si="1"/>
+        <v>210.50228310502283</v>
+      </c>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="32">
+        <v>31</v>
+      </c>
+      <c r="C12" s="32">
+        <f t="shared" si="0"/>
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="D12" s="32">
+        <f t="shared" si="1"/>
+        <v>7.0776255707762559</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="32">
+        <v>682</v>
+      </c>
+      <c r="C13" s="32">
+        <f t="shared" si="0"/>
+        <v>0.15570776255707763</v>
+      </c>
+      <c r="D13" s="32">
+        <f t="shared" si="1"/>
+        <v>155.70776255707764</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1988</v>
+      </c>
+      <c r="C14" s="32">
+        <f t="shared" si="0"/>
+        <v>0.45388127853881277</v>
+      </c>
+      <c r="D14" s="32">
+        <f t="shared" si="1"/>
+        <v>453.88127853881275</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2602</v>
+      </c>
+      <c r="C15" s="32">
+        <f t="shared" si="0"/>
+        <v>0.59406392694063925</v>
+      </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>594.06392694063925</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="32">
+        <v>18758</v>
+      </c>
+      <c r="C16" s="32">
+        <f t="shared" si="0"/>
+        <v>4.2826484018264841</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="1"/>
+        <v>4282.6484018264837</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="32">
+        <v>4883</v>
+      </c>
+      <c r="C17" s="32">
+        <f t="shared" si="0"/>
+        <v>1.1148401826484018</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="1"/>
+        <v>1114.8401826484019</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="63">
+        <v>2394</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="0"/>
+        <v>0.54657534246575346</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="1"/>
+        <v>546.57534246575347</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="32">
+        <v>2818</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="0"/>
+        <v>0.64337899543378996</v>
+      </c>
+      <c r="D19" s="32">
+        <f t="shared" si="1"/>
+        <v>643.37899543379001</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="32">
+        <v>2508</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="0"/>
+        <v>0.57260273972602738</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="1"/>
+        <v>572.60273972602738</v>
+      </c>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="32">
+        <v>4255</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" si="0"/>
+        <v>0.97146118721461183</v>
+      </c>
+      <c r="D21" s="32">
+        <f t="shared" si="1"/>
+        <v>971.46118721461187</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="32">
+        <v>2423</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="0"/>
+        <v>0.55319634703196352</v>
+      </c>
+      <c r="D22" s="32">
+        <f t="shared" si="1"/>
+        <v>553.19634703196357</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="32">
+        <v>3916</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" si="0"/>
+        <v>0.8940639269406393</v>
+      </c>
+      <c r="D23" s="32">
+        <f t="shared" si="1"/>
+        <v>894.06392694063925</v>
+      </c>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="32">
+        <v>814</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="0"/>
+        <v>0.18584474885844748</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" si="1"/>
+        <v>185.84474885844747</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1197</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="0"/>
+        <v>0.27328767123287673</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" si="1"/>
+        <v>273.28767123287673</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="63">
+        <v>1181</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="0"/>
+        <v>0.26963470319634703</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" si="1"/>
+        <v>269.634703196347</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1255</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" si="0"/>
+        <v>0.2865296803652968</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="1"/>
+        <v>286.52968036529683</v>
+      </c>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="32">
+        <v>2211</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" si="0"/>
+        <v>0.50479452054794516</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="1"/>
+        <v>504.79452054794518</v>
+      </c>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="32">
+        <v>7198</v>
+      </c>
+      <c r="C29" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6433789954337898</v>
+      </c>
+      <c r="D29" s="32">
+        <f t="shared" si="1"/>
+        <v>1643.3789954337899</v>
+      </c>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="32">
+        <v>14547</v>
+      </c>
+      <c r="C30" s="32">
+        <f t="shared" si="0"/>
+        <v>3.3212328767123287</v>
+      </c>
+      <c r="D30" s="32">
+        <f t="shared" si="1"/>
+        <v>3321.2328767123286</v>
+      </c>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="32">
+        <v>3142</v>
+      </c>
+      <c r="C31" s="32">
+        <f t="shared" si="0"/>
+        <v>0.71735159817351601</v>
+      </c>
+      <c r="D31" s="32">
+        <f t="shared" si="1"/>
+        <v>717.35159817351598</v>
+      </c>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="32">
+        <v>846</v>
+      </c>
+      <c r="C32" s="32">
+        <f t="shared" si="0"/>
+        <v>0.19315068493150686</v>
+      </c>
+      <c r="D32" s="32">
+        <f t="shared" si="1"/>
+        <v>193.15068493150687</v>
+      </c>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1741</v>
+      </c>
+      <c r="C33" s="32">
+        <f t="shared" si="0"/>
+        <v>0.39748858447488583</v>
+      </c>
+      <c r="D33" s="32">
+        <f t="shared" si="1"/>
+        <v>397.48858447488584</v>
+      </c>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="32">
+        <v>549</v>
+      </c>
+      <c r="C34" s="32">
+        <f t="shared" si="0"/>
+        <v>0.12534246575342467</v>
+      </c>
+      <c r="D34" s="32">
+        <f t="shared" si="1"/>
+        <v>125.34246575342468</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1363</v>
+      </c>
+      <c r="C35" s="32">
+        <f t="shared" si="0"/>
+        <v>0.31118721461187215</v>
+      </c>
+      <c r="D35" s="32">
+        <f t="shared" si="1"/>
+        <v>311.18721461187215</v>
+      </c>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="32">
+        <v>6711</v>
+      </c>
+      <c r="C36" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5321917808219179</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" si="1"/>
+        <v>1532.191780821918</v>
+      </c>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="32">
+        <v>3037</v>
+      </c>
+      <c r="C37" s="32">
+        <f t="shared" si="0"/>
+        <v>0.69337899543379</v>
+      </c>
+      <c r="D37" s="32">
+        <f t="shared" si="1"/>
+        <v>693.37899543379001</v>
+      </c>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="32">
+        <v>347</v>
+      </c>
+      <c r="C38" s="32">
+        <f t="shared" si="0"/>
+        <v>7.9223744292237441E-2</v>
+      </c>
+      <c r="D38" s="32">
+        <f t="shared" si="1"/>
+        <v>79.223744292237441</v>
+      </c>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="32">
+        <v>3046</v>
+      </c>
+      <c r="C39" s="32">
+        <f t="shared" si="0"/>
+        <v>0.69543378995433791</v>
+      </c>
+      <c r="D39" s="32">
+        <f t="shared" si="1"/>
+        <v>695.43378995433795</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="64"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="32">
+        <v>3016</v>
+      </c>
+      <c r="C40" s="32">
+        <f t="shared" si="0"/>
+        <v>0.68858447488584473</v>
+      </c>
+      <c r="D40" s="32">
+        <f t="shared" si="1"/>
+        <v>688.58447488584477</v>
+      </c>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="64">
+        <v>18184</v>
+      </c>
+      <c r="C41" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1515981735159819</v>
+      </c>
+      <c r="D41" s="32">
+        <f t="shared" si="1"/>
+        <v>4151.5981735159821</v>
+      </c>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="32">
+        <v>8368</v>
+      </c>
+      <c r="C42" s="32">
+        <f t="shared" si="0"/>
+        <v>1.9105022831050229</v>
+      </c>
+      <c r="D42" s="32">
+        <f t="shared" si="1"/>
+        <v>1910.5022831050228</v>
+      </c>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="32">
+        <v>59</v>
+      </c>
+      <c r="C43" s="32">
+        <f t="shared" si="0"/>
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="D43" s="32">
+        <f t="shared" si="1"/>
+        <v>13.470319634703197</v>
+      </c>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="32">
+        <v>1889</v>
+      </c>
+      <c r="C44" s="32">
+        <f t="shared" si="0"/>
+        <v>0.43127853881278538</v>
+      </c>
+      <c r="D44" s="32">
+        <f t="shared" si="1"/>
+        <v>431.27853881278537</v>
+      </c>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="32">
+        <v>1047</v>
+      </c>
+      <c r="C45" s="32">
+        <f t="shared" si="0"/>
+        <v>0.23904109589041095</v>
+      </c>
+      <c r="D45" s="32">
+        <f t="shared" si="1"/>
+        <v>239.04109589041096</v>
+      </c>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="32">
+        <v>5745</v>
+      </c>
+      <c r="C46" s="32">
+        <f t="shared" si="0"/>
+        <v>1.3116438356164384</v>
+      </c>
+      <c r="D46" s="32">
+        <f t="shared" si="1"/>
+        <v>1311.6438356164383</v>
+      </c>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="32">
+        <v>3006</v>
+      </c>
+      <c r="C47" s="32">
+        <f t="shared" si="0"/>
+        <v>0.68630136986301371</v>
+      </c>
+      <c r="D47" s="32">
+        <f t="shared" si="1"/>
+        <v>686.30136986301375</v>
+      </c>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="32">
+        <v>3528</v>
+      </c>
+      <c r="C48" s="32">
+        <f t="shared" si="0"/>
+        <v>0.80547945205479454</v>
+      </c>
+      <c r="D48" s="32">
+        <f t="shared" si="1"/>
+        <v>805.47945205479459</v>
+      </c>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="32">
+        <v>1710</v>
+      </c>
+      <c r="C49" s="32">
+        <f t="shared" si="0"/>
+        <v>0.3904109589041096</v>
+      </c>
+      <c r="D49" s="32">
+        <f t="shared" si="1"/>
+        <v>390.41095890410958</v>
+      </c>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="32">
+        <v>3657</v>
+      </c>
+      <c r="C50" s="32">
+        <f t="shared" si="0"/>
+        <v>0.83493150684931505</v>
+      </c>
+      <c r="D50" s="32">
+        <f t="shared" si="1"/>
+        <v>834.93150684931504</v>
+      </c>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="32">
+        <v>27249</v>
+      </c>
+      <c r="C51" s="32">
+        <f t="shared" si="0"/>
+        <v>6.2212328767123291</v>
+      </c>
+      <c r="D51" s="32">
+        <f t="shared" si="1"/>
+        <v>6221.232876712329</v>
+      </c>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="32">
+        <v>4408</v>
+      </c>
+      <c r="C52" s="32">
+        <f t="shared" si="0"/>
+        <v>1.006392694063927</v>
+      </c>
+      <c r="D52" s="32">
+        <f t="shared" si="1"/>
+        <v>1006.3926940639269</v>
+      </c>
+      <c r="I52" s="60"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="32">
+        <v>2287</v>
+      </c>
+      <c r="C53" s="32">
+        <f t="shared" si="0"/>
+        <v>0.52214611872146122</v>
+      </c>
+      <c r="D53" s="32">
+        <f t="shared" si="1"/>
+        <v>522.14611872146122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="32">
+        <v>4445</v>
+      </c>
+      <c r="C54" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0148401826484019</v>
+      </c>
+      <c r="D54" s="32">
+        <f t="shared" si="1"/>
+        <v>1014.8401826484019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="66"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="69"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="67"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="69"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="66"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="69"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="I62" s="67"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="69"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="J63" s="67"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="69"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="69"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="45">
+        <f>1050+1093</f>
+        <v>2143</v>
+      </c>
+      <c r="C65" s="45">
+        <f>6161000 + 6272000</f>
+        <v>12433000</v>
+      </c>
+      <c r="D65" s="70">
+        <v>0.67</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="32">
+        <f>B65/5</f>
+        <v>428.6</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="69"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="45">
+        <f>3043+1667</f>
+        <v>4710</v>
+      </c>
+      <c r="C66" s="45">
+        <f>16711000+9234000</f>
+        <v>25945000</v>
+      </c>
+      <c r="D66" s="70">
+        <v>0.63</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="32">
+        <f>B66/7</f>
+        <v>672.85714285714289</v>
+      </c>
+      <c r="G66" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="32">
+        <f>F77+F78</f>
+        <v>1477.6</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="69"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="45">
+        <f>1389+1172</f>
+        <v>2561</v>
+      </c>
+      <c r="C67" s="45">
+        <f>7785000+6420000</f>
+        <v>14205000</v>
+      </c>
+      <c r="D67" s="70">
+        <v>0.64</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="32">
+        <f>B67/6</f>
+        <v>426.83333333333331</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="69"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="45">
+        <f>1160+265</f>
+        <v>1425</v>
+      </c>
+      <c r="C68" s="45">
+        <f>1538000+6906000</f>
+        <v>8444000</v>
+      </c>
+      <c r="D68" s="70">
+        <v>0.68</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" s="32">
+        <f>B68/4</f>
+        <v>356.25</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="69"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="45">
+        <v>4757</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="70">
+        <v>0.61</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="32">
+        <f>B69/6</f>
+        <v>792.83333333333337</v>
+      </c>
+      <c r="G69" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="32">
+        <f>F78</f>
+        <v>871</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="69"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="45">
+        <v>1363</v>
+      </c>
+      <c r="C70" s="45"/>
+      <c r="D70" s="70">
+        <v>0.67</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="32">
+        <f>B70/2</f>
+        <v>681.5</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="32">
+        <f>F66</f>
+        <v>672.85714285714289</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="69"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="45">
+        <v>2081</v>
+      </c>
+      <c r="C71" s="45"/>
+      <c r="D71" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="F71" s="32">
+        <f>B71/5</f>
+        <v>416.2</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71" s="32">
+        <f>F66</f>
+        <v>672.85714285714289</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J71" s="67"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="69"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="45">
+        <f>1741+331</f>
+        <v>2072</v>
+      </c>
+      <c r="C72" s="45"/>
+      <c r="D72" s="70">
+        <v>0.68</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" s="32">
+        <f>B72/3</f>
+        <v>690.66666666666663</v>
+      </c>
+      <c r="G72" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="H72" s="32">
+        <f>M126</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="69"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" s="45">
+        <f>68+82</f>
+        <v>150</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="70">
+        <v>0.63</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="32">
+        <f>B73/2</f>
+        <v>75</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J73" s="67"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="69"/>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="45">
+        <f>3027+8659</f>
+        <v>11686</v>
+      </c>
+      <c r="C74" s="45"/>
+      <c r="D74" s="70">
+        <v>0.68</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="32">
+        <f>B74/7</f>
+        <v>1669.4285714285713</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" s="67"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="69"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="45">
+        <f>395+388</f>
+        <v>783</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="70">
+        <v>0.66</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="32">
+        <f>B75</f>
+        <v>783</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="69"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="45">
+        <f>1336+301</f>
+        <v>1637</v>
+      </c>
+      <c r="C76" s="45"/>
+      <c r="D76" s="70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="32">
+        <f>B76/2</f>
+        <v>818.5</v>
+      </c>
+      <c r="G76" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="32">
+        <f>F71</f>
+        <v>416.2</v>
+      </c>
+      <c r="I76" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="J76" s="67"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="69"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="45">
+        <f>1942+1091</f>
+        <v>3033</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="70">
+        <v>0.66</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="32">
+        <f>B77/5</f>
+        <v>606.6</v>
+      </c>
+      <c r="G77" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="63">
+        <v>792.83333330000005</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" s="67"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="69"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" s="45">
+        <f>2166+447</f>
+        <v>2613</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="70">
+        <v>0.7</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="32">
+        <f t="shared" ref="F78:F79" si="2">B78/3</f>
+        <v>871</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="69"/>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B79" s="45">
+        <f>148+416</f>
+        <v>564</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="F79" s="32">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J79" s="67"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="69"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" s="45">
+        <f>15997+9228</f>
+        <v>25225</v>
+      </c>
+      <c r="C80" s="45"/>
+      <c r="D80" s="70">
+        <v>0.69</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="32">
+        <f>B80/4</f>
+        <v>6306.25</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="69"/>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="45">
+        <f>4029+3025</f>
+        <v>7054</v>
+      </c>
+      <c r="C81" s="45"/>
+      <c r="D81" s="70">
+        <v>0.63</v>
+      </c>
+      <c r="E81" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="32">
+        <f t="shared" ref="F81:F83" si="3">B81</f>
+        <v>7054</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="69"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="45">
+        <v>4723</v>
+      </c>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" s="45"/>
+      <c r="F82" s="32">
+        <f t="shared" si="3"/>
+        <v>4723</v>
+      </c>
+      <c r="G82" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="32">
+        <f t="shared" ref="H82:H83" si="4">F65</f>
+        <v>428.6</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J82" s="67"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="69"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="45">
+        <v>145</v>
+      </c>
+      <c r="C83" s="45"/>
+      <c r="D83" s="70">
+        <v>0.53</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="32">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="G83" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="H83" s="32">
+        <f t="shared" si="4"/>
+        <v>672.85714285714289</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="69"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="69"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" s="63">
+        <f>F68</f>
+        <v>356.25</v>
+      </c>
+      <c r="I85" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="69"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H86" s="45">
+        <f>F73+F71</f>
+        <v>491.2</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="69"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="67"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="69"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="69"/>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J90" s="67"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="69"/>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="H91" s="32">
+        <f>F78+F79</f>
+        <v>1059</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J91" s="67"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="69"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I92" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="69"/>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="H93" s="32">
+        <f>F66</f>
+        <v>672.85714285714289</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J93" s="67"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="68"/>
+      <c r="M93" s="69"/>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94" s="32">
+        <f>F78+F79</f>
+        <v>1059</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J94" s="68"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="69"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="H96" s="32">
+        <f>+F67+F70</f>
+        <v>1108.3333333333333</v>
+      </c>
+      <c r="I96" s="45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="32">
+        <f>F68+F69</f>
+        <v>1149.0833333333335</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="H100" s="64">
+        <f>F80</f>
+        <v>6306.25</v>
+      </c>
+      <c r="I100" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H101" s="32">
+        <f>F66+F69</f>
+        <v>1465.6904761904761</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="H106" s="32">
+        <f>F75+F76</f>
+        <v>1601.5</v>
+      </c>
+      <c r="I106" s="73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="H109" s="32">
+        <f>F66+F69</f>
+        <v>1465.6904761904761</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H112" s="32">
+        <f>F68+F71</f>
+        <v>772.45</v>
+      </c>
+      <c r="I112" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B62" r:id="rId1" xr:uid="{31584BB2-B7E7-4133-B487-37CDDD4F8072}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -2623,7 +5498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -2631,7 +5506,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,8 +5528,8 @@
         <v>54</v>
       </c>
       <c r="B2" s="14">
-        <f>9*10^12</f>
-        <v>9000000000000</v>
+        <f>IF(INDEX('coal ban'!D:D,MATCH(About!$B$2,'coal ban'!C:C,0))="yes",0,9*10^12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,8 +5555,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="14">
-        <f>9*10^12</f>
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2762,7 +5636,7 @@
       </c>
       <c r="B14" s="14">
         <f>B2</f>
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,8 +5707,8 @@
         <v>95</v>
       </c>
       <c r="B22" s="14">
-        <f>9*10^12</f>
-        <v>9000000000000</v>
+        <f>IF(INDEX('coal ban'!D:D,MATCH(About!$B$2,'coal ban'!C:C,0))="yes",0,9*10^12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,6 +5745,582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333C710-6A53-4C92-917A-049B0A9C4CC8}">
+  <dimension ref="B1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87394CF-62EC-4069-88FA-A4FFA79125F2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4284,7 +7734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532E82F-DE71-433C-A904-F547FC46FF0C}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -6302,7 +9752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FE3131-58B4-4490-BBBD-7F1C79BC2A36}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -6935,1515 +10385,6 @@
       <c r="C53" s="47">
         <f t="shared" si="0"/>
         <v>1956000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DC60A1-9DC3-4CCB-9E47-F7E8824CC567}">
-  <dimension ref="A1:C1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="8.7109375" style="28" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="str">
-        <f>About!B2</f>
-        <v>CA</v>
-      </c>
-      <c r="B1" s="32">
-        <f>SUMIFS(C4:C53,A4:A53,A1)</f>
-        <v>655000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="47">
-        <f t="shared" ref="C4:C53" si="0">B4*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="32">
-        <v>655</v>
-      </c>
-      <c r="C8" s="47">
-        <f t="shared" si="0"/>
-        <v>655000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="32">
-        <v>7</v>
-      </c>
-      <c r="C10" s="47">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="32">
-        <v>15</v>
-      </c>
-      <c r="C11" s="47">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="32">
-        <v>10</v>
-      </c>
-      <c r="C12" s="47">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="32">
-        <v>16</v>
-      </c>
-      <c r="C16" s="47">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="32">
-        <v>341</v>
-      </c>
-      <c r="C21" s="47">
-        <f t="shared" si="0"/>
-        <v>341000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="32">
-        <v>147</v>
-      </c>
-      <c r="C22" s="47">
-        <f t="shared" si="0"/>
-        <v>147000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="32">
-        <v>52</v>
-      </c>
-      <c r="C23" s="47">
-        <f t="shared" si="0"/>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="32">
-        <v>184</v>
-      </c>
-      <c r="C24" s="47">
-        <f t="shared" si="0"/>
-        <v>184000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="32">
-        <v>423</v>
-      </c>
-      <c r="C25" s="47">
-        <f t="shared" si="0"/>
-        <v>423000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="32">
-        <v>29</v>
-      </c>
-      <c r="C26" s="47">
-        <f t="shared" si="0"/>
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="32">
-        <v>3</v>
-      </c>
-      <c r="C27" s="47">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="47">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="32">
-        <v>102</v>
-      </c>
-      <c r="C33" s="47">
-        <f t="shared" si="0"/>
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="32">
-        <v>146</v>
-      </c>
-      <c r="C35" s="47">
-        <f t="shared" si="0"/>
-        <v>146000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="32">
-        <v>306</v>
-      </c>
-      <c r="C36" s="47">
-        <f t="shared" si="0"/>
-        <v>306000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="32">
-        <v>42</v>
-      </c>
-      <c r="C38" s="47">
-        <f t="shared" si="0"/>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="32">
-        <v>225</v>
-      </c>
-      <c r="C40" s="47">
-        <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="32">
-        <v>6</v>
-      </c>
-      <c r="C41" s="47">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="32">
-        <v>21</v>
-      </c>
-      <c r="C42" s="47">
-        <f t="shared" si="0"/>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="32">
-        <v>133</v>
-      </c>
-      <c r="C43" s="47">
-        <f t="shared" si="0"/>
-        <v>133000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="32">
-        <v>271</v>
-      </c>
-      <c r="C46" s="47">
-        <f t="shared" si="0"/>
-        <v>271000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="32">
-        <v>89</v>
-      </c>
-      <c r="C49" s="47">
-        <f t="shared" si="0"/>
-        <v>89000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9404,6 +11345,1515 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DC60A1-9DC3-4CCB-9E47-F7E8824CC567}">
+  <dimension ref="A1:C1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="26" width="8.7109375" style="28" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="str">
+        <f>About!B2</f>
+        <v>CA</v>
+      </c>
+      <c r="B1" s="32">
+        <f>SUMIFS(C4:C53,A4:A53,A1)</f>
+        <v>655000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="47">
+        <f t="shared" ref="C4:C53" si="0">B4*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="32">
+        <v>655</v>
+      </c>
+      <c r="C8" s="47">
+        <f t="shared" si="0"/>
+        <v>655000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="32">
+        <v>7</v>
+      </c>
+      <c r="C10" s="47">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="32">
+        <v>15</v>
+      </c>
+      <c r="C11" s="47">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="32">
+        <v>10</v>
+      </c>
+      <c r="C12" s="47">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="32">
+        <v>16</v>
+      </c>
+      <c r="C16" s="47">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="32">
+        <v>341</v>
+      </c>
+      <c r="C21" s="47">
+        <f t="shared" si="0"/>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="32">
+        <v>147</v>
+      </c>
+      <c r="C22" s="47">
+        <f t="shared" si="0"/>
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="32">
+        <v>52</v>
+      </c>
+      <c r="C23" s="47">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="32">
+        <v>184</v>
+      </c>
+      <c r="C24" s="47">
+        <f t="shared" si="0"/>
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="32">
+        <v>423</v>
+      </c>
+      <c r="C25" s="47">
+        <f t="shared" si="0"/>
+        <v>423000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="32">
+        <v>29</v>
+      </c>
+      <c r="C26" s="47">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="32">
+        <v>3</v>
+      </c>
+      <c r="C27" s="47">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="47">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="32">
+        <v>102</v>
+      </c>
+      <c r="C33" s="47">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="32">
+        <v>146</v>
+      </c>
+      <c r="C35" s="47">
+        <f t="shared" si="0"/>
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="32">
+        <v>306</v>
+      </c>
+      <c r="C36" s="47">
+        <f t="shared" si="0"/>
+        <v>306000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="32">
+        <v>42</v>
+      </c>
+      <c r="C38" s="47">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="32">
+        <v>225</v>
+      </c>
+      <c r="C40" s="47">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="32">
+        <v>6</v>
+      </c>
+      <c r="C41" s="47">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="32">
+        <v>21</v>
+      </c>
+      <c r="C42" s="47">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="32">
+        <v>133</v>
+      </c>
+      <c r="C43" s="47">
+        <f t="shared" si="0"/>
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="32">
+        <v>271</v>
+      </c>
+      <c r="C46" s="47">
+        <f t="shared" si="0"/>
+        <v>271000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="32">
+        <v>89</v>
+      </c>
+      <c r="C49" s="47">
+        <f t="shared" si="0"/>
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433B8708-1261-466E-BB3B-9EFA88068AF6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
@@ -12628,7 +16078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113D23D-A062-4A17-A3A9-D14A938B4B23}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
@@ -14428,11 +17878,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CB9D0F-F59F-4121-AE69-825DCCA06CD7}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16023,2869 +19475,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034993D7-C303-48FF-99F6-02F9737AB03C}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="28" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" style="28" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="str">
-        <f>About!B2</f>
-        <v>CA</v>
-      </c>
-      <c r="B1" s="32">
-        <f>SUMIFS(D5:D54,A5:A54,A1)</f>
-        <v>6854.7945205479455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="32">
-        <f>8760*0.5</f>
-        <v>4380</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="32">
-        <v>4103</v>
-      </c>
-      <c r="C5" s="32">
-        <f t="shared" ref="C5:C54" si="0">B5/$F$4</f>
-        <v>0.93675799086757994</v>
-      </c>
-      <c r="D5" s="32">
-        <f t="shared" ref="D5:D54" si="1">C5*1000</f>
-        <v>936.75799086757991</v>
-      </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="32">
-        <v>23676</v>
-      </c>
-      <c r="C6" s="32">
-        <f t="shared" si="0"/>
-        <v>5.4054794520547942</v>
-      </c>
-      <c r="D6" s="32">
-        <f t="shared" si="1"/>
-        <v>5405.4794520547939</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1303</v>
-      </c>
-      <c r="C7" s="32">
-        <f t="shared" si="0"/>
-        <v>0.29748858447488585</v>
-      </c>
-      <c r="D7" s="32">
-        <f t="shared" si="1"/>
-        <v>297.48858447488584</v>
-      </c>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="32">
-        <v>6093</v>
-      </c>
-      <c r="C8" s="32">
-        <f t="shared" si="0"/>
-        <v>1.3910958904109589</v>
-      </c>
-      <c r="D8" s="32">
-        <f t="shared" si="1"/>
-        <v>1391.0958904109589</v>
-      </c>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="32">
-        <v>30024</v>
-      </c>
-      <c r="C9" s="32">
-        <f t="shared" si="0"/>
-        <v>6.8547945205479452</v>
-      </c>
-      <c r="D9" s="32">
-        <f t="shared" si="1"/>
-        <v>6854.7945205479455</v>
-      </c>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="32">
-        <v>7789</v>
-      </c>
-      <c r="C10" s="32">
-        <f t="shared" si="0"/>
-        <v>1.7783105022831049</v>
-      </c>
-      <c r="D10" s="32">
-        <f t="shared" si="1"/>
-        <v>1778.3105022831051</v>
-      </c>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="32">
-        <v>922</v>
-      </c>
-      <c r="C11" s="32">
-        <f t="shared" si="0"/>
-        <v>0.21050228310502284</v>
-      </c>
-      <c r="D11" s="32">
-        <f t="shared" si="1"/>
-        <v>210.50228310502283</v>
-      </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="32">
-        <v>31</v>
-      </c>
-      <c r="C12" s="32">
-        <f t="shared" si="0"/>
-        <v>7.0776255707762558E-3</v>
-      </c>
-      <c r="D12" s="32">
-        <f t="shared" si="1"/>
-        <v>7.0776255707762559</v>
-      </c>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="32">
-        <v>682</v>
-      </c>
-      <c r="C13" s="32">
-        <f t="shared" si="0"/>
-        <v>0.15570776255707763</v>
-      </c>
-      <c r="D13" s="32">
-        <f t="shared" si="1"/>
-        <v>155.70776255707764</v>
-      </c>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1988</v>
-      </c>
-      <c r="C14" s="32">
-        <f t="shared" si="0"/>
-        <v>0.45388127853881277</v>
-      </c>
-      <c r="D14" s="32">
-        <f t="shared" si="1"/>
-        <v>453.88127853881275</v>
-      </c>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="32">
-        <v>2602</v>
-      </c>
-      <c r="C15" s="32">
-        <f t="shared" si="0"/>
-        <v>0.59406392694063925</v>
-      </c>
-      <c r="D15" s="32">
-        <f t="shared" si="1"/>
-        <v>594.06392694063925</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="32">
-        <v>18758</v>
-      </c>
-      <c r="C16" s="32">
-        <f t="shared" si="0"/>
-        <v>4.2826484018264841</v>
-      </c>
-      <c r="D16" s="32">
-        <f t="shared" si="1"/>
-        <v>4282.6484018264837</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="32">
-        <v>4883</v>
-      </c>
-      <c r="C17" s="32">
-        <f t="shared" si="0"/>
-        <v>1.1148401826484018</v>
-      </c>
-      <c r="D17" s="32">
-        <f t="shared" si="1"/>
-        <v>1114.8401826484019</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="63">
-        <v>2394</v>
-      </c>
-      <c r="C18" s="32">
-        <f t="shared" si="0"/>
-        <v>0.54657534246575346</v>
-      </c>
-      <c r="D18" s="32">
-        <f t="shared" si="1"/>
-        <v>546.57534246575347</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="32">
-        <v>2818</v>
-      </c>
-      <c r="C19" s="32">
-        <f t="shared" si="0"/>
-        <v>0.64337899543378996</v>
-      </c>
-      <c r="D19" s="32">
-        <f t="shared" si="1"/>
-        <v>643.37899543379001</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="32">
-        <v>2508</v>
-      </c>
-      <c r="C20" s="32">
-        <f t="shared" si="0"/>
-        <v>0.57260273972602738</v>
-      </c>
-      <c r="D20" s="32">
-        <f t="shared" si="1"/>
-        <v>572.60273972602738</v>
-      </c>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="32">
-        <v>4255</v>
-      </c>
-      <c r="C21" s="32">
-        <f t="shared" si="0"/>
-        <v>0.97146118721461183</v>
-      </c>
-      <c r="D21" s="32">
-        <f t="shared" si="1"/>
-        <v>971.46118721461187</v>
-      </c>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="32">
-        <v>2423</v>
-      </c>
-      <c r="C22" s="32">
-        <f t="shared" si="0"/>
-        <v>0.55319634703196352</v>
-      </c>
-      <c r="D22" s="32">
-        <f t="shared" si="1"/>
-        <v>553.19634703196357</v>
-      </c>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="32">
-        <v>3916</v>
-      </c>
-      <c r="C23" s="32">
-        <f t="shared" si="0"/>
-        <v>0.8940639269406393</v>
-      </c>
-      <c r="D23" s="32">
-        <f t="shared" si="1"/>
-        <v>894.06392694063925</v>
-      </c>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="32">
-        <v>814</v>
-      </c>
-      <c r="C24" s="32">
-        <f t="shared" si="0"/>
-        <v>0.18584474885844748</v>
-      </c>
-      <c r="D24" s="32">
-        <f t="shared" si="1"/>
-        <v>185.84474885844747</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="32">
-        <v>1197</v>
-      </c>
-      <c r="C25" s="32">
-        <f t="shared" si="0"/>
-        <v>0.27328767123287673</v>
-      </c>
-      <c r="D25" s="32">
-        <f t="shared" si="1"/>
-        <v>273.28767123287673</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="63">
-        <v>1181</v>
-      </c>
-      <c r="C26" s="32">
-        <f t="shared" si="0"/>
-        <v>0.26963470319634703</v>
-      </c>
-      <c r="D26" s="32">
-        <f t="shared" si="1"/>
-        <v>269.634703196347</v>
-      </c>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="45">
-        <v>1255</v>
-      </c>
-      <c r="C27" s="32">
-        <f t="shared" si="0"/>
-        <v>0.2865296803652968</v>
-      </c>
-      <c r="D27" s="32">
-        <f t="shared" si="1"/>
-        <v>286.52968036529683</v>
-      </c>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="32">
-        <v>2211</v>
-      </c>
-      <c r="C28" s="32">
-        <f t="shared" si="0"/>
-        <v>0.50479452054794516</v>
-      </c>
-      <c r="D28" s="32">
-        <f t="shared" si="1"/>
-        <v>504.79452054794518</v>
-      </c>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="32">
-        <v>7198</v>
-      </c>
-      <c r="C29" s="32">
-        <f t="shared" si="0"/>
-        <v>1.6433789954337898</v>
-      </c>
-      <c r="D29" s="32">
-        <f t="shared" si="1"/>
-        <v>1643.3789954337899</v>
-      </c>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="32">
-        <v>14547</v>
-      </c>
-      <c r="C30" s="32">
-        <f t="shared" si="0"/>
-        <v>3.3212328767123287</v>
-      </c>
-      <c r="D30" s="32">
-        <f t="shared" si="1"/>
-        <v>3321.2328767123286</v>
-      </c>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="32">
-        <v>3142</v>
-      </c>
-      <c r="C31" s="32">
-        <f t="shared" si="0"/>
-        <v>0.71735159817351601</v>
-      </c>
-      <c r="D31" s="32">
-        <f t="shared" si="1"/>
-        <v>717.35159817351598</v>
-      </c>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="32">
-        <v>846</v>
-      </c>
-      <c r="C32" s="32">
-        <f t="shared" si="0"/>
-        <v>0.19315068493150686</v>
-      </c>
-      <c r="D32" s="32">
-        <f t="shared" si="1"/>
-        <v>193.15068493150687</v>
-      </c>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="32">
-        <v>1741</v>
-      </c>
-      <c r="C33" s="32">
-        <f t="shared" si="0"/>
-        <v>0.39748858447488583</v>
-      </c>
-      <c r="D33" s="32">
-        <f t="shared" si="1"/>
-        <v>397.48858447488584</v>
-      </c>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="32">
-        <v>549</v>
-      </c>
-      <c r="C34" s="32">
-        <f t="shared" si="0"/>
-        <v>0.12534246575342467</v>
-      </c>
-      <c r="D34" s="32">
-        <f t="shared" si="1"/>
-        <v>125.34246575342468</v>
-      </c>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="32">
-        <v>1363</v>
-      </c>
-      <c r="C35" s="32">
-        <f t="shared" si="0"/>
-        <v>0.31118721461187215</v>
-      </c>
-      <c r="D35" s="32">
-        <f t="shared" si="1"/>
-        <v>311.18721461187215</v>
-      </c>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="32">
-        <v>6711</v>
-      </c>
-      <c r="C36" s="32">
-        <f t="shared" si="0"/>
-        <v>1.5321917808219179</v>
-      </c>
-      <c r="D36" s="32">
-        <f t="shared" si="1"/>
-        <v>1532.191780821918</v>
-      </c>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="32">
-        <v>3037</v>
-      </c>
-      <c r="C37" s="32">
-        <f t="shared" si="0"/>
-        <v>0.69337899543379</v>
-      </c>
-      <c r="D37" s="32">
-        <f t="shared" si="1"/>
-        <v>693.37899543379001</v>
-      </c>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="32">
-        <v>347</v>
-      </c>
-      <c r="C38" s="32">
-        <f t="shared" si="0"/>
-        <v>7.9223744292237441E-2</v>
-      </c>
-      <c r="D38" s="32">
-        <f t="shared" si="1"/>
-        <v>79.223744292237441</v>
-      </c>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="32">
-        <v>3046</v>
-      </c>
-      <c r="C39" s="32">
-        <f t="shared" si="0"/>
-        <v>0.69543378995433791</v>
-      </c>
-      <c r="D39" s="32">
-        <f t="shared" si="1"/>
-        <v>695.43378995433795</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="64"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="32">
-        <v>3016</v>
-      </c>
-      <c r="C40" s="32">
-        <f t="shared" si="0"/>
-        <v>0.68858447488584473</v>
-      </c>
-      <c r="D40" s="32">
-        <f t="shared" si="1"/>
-        <v>688.58447488584477</v>
-      </c>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="64">
-        <v>18184</v>
-      </c>
-      <c r="C41" s="32">
-        <f t="shared" si="0"/>
-        <v>4.1515981735159819</v>
-      </c>
-      <c r="D41" s="32">
-        <f t="shared" si="1"/>
-        <v>4151.5981735159821</v>
-      </c>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="32">
-        <v>8368</v>
-      </c>
-      <c r="C42" s="32">
-        <f t="shared" si="0"/>
-        <v>1.9105022831050229</v>
-      </c>
-      <c r="D42" s="32">
-        <f t="shared" si="1"/>
-        <v>1910.5022831050228</v>
-      </c>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="32">
-        <v>59</v>
-      </c>
-      <c r="C43" s="32">
-        <f t="shared" si="0"/>
-        <v>1.3470319634703196E-2</v>
-      </c>
-      <c r="D43" s="32">
-        <f t="shared" si="1"/>
-        <v>13.470319634703197</v>
-      </c>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="32">
-        <v>1889</v>
-      </c>
-      <c r="C44" s="32">
-        <f t="shared" si="0"/>
-        <v>0.43127853881278538</v>
-      </c>
-      <c r="D44" s="32">
-        <f t="shared" si="1"/>
-        <v>431.27853881278537</v>
-      </c>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="32">
-        <v>1047</v>
-      </c>
-      <c r="C45" s="32">
-        <f t="shared" si="0"/>
-        <v>0.23904109589041095</v>
-      </c>
-      <c r="D45" s="32">
-        <f t="shared" si="1"/>
-        <v>239.04109589041096</v>
-      </c>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="32">
-        <v>5745</v>
-      </c>
-      <c r="C46" s="32">
-        <f t="shared" si="0"/>
-        <v>1.3116438356164384</v>
-      </c>
-      <c r="D46" s="32">
-        <f t="shared" si="1"/>
-        <v>1311.6438356164383</v>
-      </c>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="32">
-        <v>3006</v>
-      </c>
-      <c r="C47" s="32">
-        <f t="shared" si="0"/>
-        <v>0.68630136986301371</v>
-      </c>
-      <c r="D47" s="32">
-        <f t="shared" si="1"/>
-        <v>686.30136986301375</v>
-      </c>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="32">
-        <v>3528</v>
-      </c>
-      <c r="C48" s="32">
-        <f t="shared" si="0"/>
-        <v>0.80547945205479454</v>
-      </c>
-      <c r="D48" s="32">
-        <f t="shared" si="1"/>
-        <v>805.47945205479459</v>
-      </c>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="32">
-        <v>1710</v>
-      </c>
-      <c r="C49" s="32">
-        <f t="shared" si="0"/>
-        <v>0.3904109589041096</v>
-      </c>
-      <c r="D49" s="32">
-        <f t="shared" si="1"/>
-        <v>390.41095890410958</v>
-      </c>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="32">
-        <v>3657</v>
-      </c>
-      <c r="C50" s="32">
-        <f t="shared" si="0"/>
-        <v>0.83493150684931505</v>
-      </c>
-      <c r="D50" s="32">
-        <f t="shared" si="1"/>
-        <v>834.93150684931504</v>
-      </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="32">
-        <v>27249</v>
-      </c>
-      <c r="C51" s="32">
-        <f t="shared" si="0"/>
-        <v>6.2212328767123291</v>
-      </c>
-      <c r="D51" s="32">
-        <f t="shared" si="1"/>
-        <v>6221.232876712329</v>
-      </c>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="32">
-        <v>4408</v>
-      </c>
-      <c r="C52" s="32">
-        <f t="shared" si="0"/>
-        <v>1.006392694063927</v>
-      </c>
-      <c r="D52" s="32">
-        <f t="shared" si="1"/>
-        <v>1006.3926940639269</v>
-      </c>
-      <c r="I52" s="60"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="32">
-        <v>2287</v>
-      </c>
-      <c r="C53" s="32">
-        <f t="shared" si="0"/>
-        <v>0.52214611872146122</v>
-      </c>
-      <c r="D53" s="32">
-        <f t="shared" si="1"/>
-        <v>522.14611872146122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="32">
-        <v>4445</v>
-      </c>
-      <c r="C54" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0148401826484019</v>
-      </c>
-      <c r="D54" s="32">
-        <f t="shared" si="1"/>
-        <v>1014.8401826484019</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="66"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="69"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I60" s="67"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I61" s="66"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="69"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="I62" s="67"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="69"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="I63" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="J63" s="67"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="69"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="69"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="45">
-        <f>1050+1093</f>
-        <v>2143</v>
-      </c>
-      <c r="C65" s="45">
-        <f>6161000 + 6272000</f>
-        <v>12433000</v>
-      </c>
-      <c r="D65" s="70">
-        <v>0.67</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F65" s="32">
-        <f>B65/5</f>
-        <v>428.6</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="69"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="45">
-        <f>3043+1667</f>
-        <v>4710</v>
-      </c>
-      <c r="C66" s="45">
-        <f>16711000+9234000</f>
-        <v>25945000</v>
-      </c>
-      <c r="D66" s="70">
-        <v>0.63</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="F66" s="32">
-        <f>B66/7</f>
-        <v>672.85714285714289</v>
-      </c>
-      <c r="G66" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="32">
-        <f>F77+F78</f>
-        <v>1477.6</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="69"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="B67" s="45">
-        <f>1389+1172</f>
-        <v>2561</v>
-      </c>
-      <c r="C67" s="45">
-        <f>7785000+6420000</f>
-        <v>14205000</v>
-      </c>
-      <c r="D67" s="70">
-        <v>0.64</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="F67" s="32">
-        <f>B67/6</f>
-        <v>426.83333333333331</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="J67" s="67"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="69"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="45">
-        <f>1160+265</f>
-        <v>1425</v>
-      </c>
-      <c r="C68" s="45">
-        <f>1538000+6906000</f>
-        <v>8444000</v>
-      </c>
-      <c r="D68" s="70">
-        <v>0.68</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="F68" s="32">
-        <f>B68/4</f>
-        <v>356.25</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="69"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="45">
-        <v>4757</v>
-      </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="70">
-        <v>0.61</v>
-      </c>
-      <c r="E69" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="32">
-        <f>B69/6</f>
-        <v>792.83333333333337</v>
-      </c>
-      <c r="G69" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="32">
-        <f>F78</f>
-        <v>871</v>
-      </c>
-      <c r="I69" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="69"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="45">
-        <v>1363</v>
-      </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="70">
-        <v>0.67</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" s="32">
-        <f>B70/2</f>
-        <v>681.5</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H70" s="32">
-        <f>F66</f>
-        <v>672.85714285714289</v>
-      </c>
-      <c r="I70" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J70" s="67"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="69"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="B71" s="45">
-        <v>2081</v>
-      </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="70">
-        <v>0.65</v>
-      </c>
-      <c r="E71" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="F71" s="32">
-        <f>B71/5</f>
-        <v>416.2</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H71" s="32">
-        <f>F66</f>
-        <v>672.85714285714289</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="69"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B72" s="45">
-        <f>1741+331</f>
-        <v>2072</v>
-      </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="70">
-        <v>0.68</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="F72" s="32">
-        <f>B72/3</f>
-        <v>690.66666666666663</v>
-      </c>
-      <c r="G72" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="H72" s="32">
-        <f>M126</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="69"/>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" s="45">
-        <f>68+82</f>
-        <v>150</v>
-      </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="70">
-        <v>0.63</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="32">
-        <f>B73/2</f>
-        <v>75</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J73" s="67"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="69"/>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="45">
-        <f>3027+8659</f>
-        <v>11686</v>
-      </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="70">
-        <v>0.68</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="32">
-        <f>B74/7</f>
-        <v>1669.4285714285713</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="69"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="45">
-        <f>395+388</f>
-        <v>783</v>
-      </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="70">
-        <v>0.66</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="F75" s="32">
-        <f>B75</f>
-        <v>783</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="69"/>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B76" s="45">
-        <f>1336+301</f>
-        <v>1637</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="70">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F76" s="32">
-        <f>B76/2</f>
-        <v>818.5</v>
-      </c>
-      <c r="G76" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="H76" s="32">
-        <f>F71</f>
-        <v>416.2</v>
-      </c>
-      <c r="I76" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="J76" s="67"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="69"/>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B77" s="45">
-        <f>1942+1091</f>
-        <v>3033</v>
-      </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="70">
-        <v>0.66</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" s="32">
-        <f>B77/5</f>
-        <v>606.6</v>
-      </c>
-      <c r="G77" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" s="63">
-        <v>792.83333330000005</v>
-      </c>
-      <c r="I77" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J77" s="67"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="69"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" s="45">
-        <f>2166+447</f>
-        <v>2613</v>
-      </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="70">
-        <v>0.7</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="32">
-        <f t="shared" ref="F78:F79" si="2">B78/3</f>
-        <v>871</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="69"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="45">
-        <f>148+416</f>
-        <v>564</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="70">
-        <v>0.65</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="F79" s="32">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J79" s="67"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="69"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="B80" s="45">
-        <f>15997+9228</f>
-        <v>25225</v>
-      </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="70">
-        <v>0.69</v>
-      </c>
-      <c r="E80" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="32">
-        <f>B80/4</f>
-        <v>6306.25</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="69"/>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="45">
-        <f>4029+3025</f>
-        <v>7054</v>
-      </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="70">
-        <v>0.63</v>
-      </c>
-      <c r="E81" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="32">
-        <f t="shared" ref="F81:F83" si="3">B81</f>
-        <v>7054</v>
-      </c>
-      <c r="G81" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="69"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="45">
-        <v>4723</v>
-      </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="32">
-        <f t="shared" si="3"/>
-        <v>4723</v>
-      </c>
-      <c r="G82" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="32">
-        <f t="shared" ref="H82:H83" si="4">F65</f>
-        <v>428.6</v>
-      </c>
-      <c r="I82" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J82" s="67"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="69"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="45">
-        <v>145</v>
-      </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="70">
-        <v>0.53</v>
-      </c>
-      <c r="E83" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="32">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="G83" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="H83" s="32">
-        <f t="shared" si="4"/>
-        <v>672.85714285714289</v>
-      </c>
-      <c r="I83" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="69"/>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I84" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J84" s="67"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="69"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G85" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="63">
-        <f>F68</f>
-        <v>356.25</v>
-      </c>
-      <c r="I85" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="J85" s="67"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="69"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H86" s="45">
-        <f>F73+F71</f>
-        <v>491.2</v>
-      </c>
-      <c r="I86" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="69"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G87" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="69"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="J88" s="67"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="69"/>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="69"/>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="J90" s="67"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="69"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="H91" s="32">
-        <f>F78+F79</f>
-        <v>1059</v>
-      </c>
-      <c r="I91" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="J91" s="67"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="69"/>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="I92" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="69"/>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G93" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="H93" s="32">
-        <f>F66</f>
-        <v>672.85714285714289</v>
-      </c>
-      <c r="I93" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="J93" s="67"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="68"/>
-      <c r="M93" s="69"/>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G94" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="H94" s="32">
-        <f>F78+F79</f>
-        <v>1059</v>
-      </c>
-      <c r="I94" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="J94" s="68"/>
-      <c r="K94" s="68"/>
-      <c r="L94" s="69"/>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="H96" s="32">
-        <f>+F67+F70</f>
-        <v>1108.3333333333333</v>
-      </c>
-      <c r="I96" s="45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H98" s="32">
-        <f>F68+F69</f>
-        <v>1149.0833333333335</v>
-      </c>
-      <c r="I98" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G100" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="H100" s="64">
-        <f>F80</f>
-        <v>6306.25</v>
-      </c>
-      <c r="I100" s="45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="H101" s="32">
-        <f>F66+F69</f>
-        <v>1465.6904761904761</v>
-      </c>
-      <c r="I101" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="103" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G103" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G104" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G105" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G106" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="H106" s="32">
-        <f>F75+F76</f>
-        <v>1601.5</v>
-      </c>
-      <c r="I106" s="73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G107" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G108" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G109" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="H109" s="32">
-        <f>F66+F69</f>
-        <v>1465.6904761904761</v>
-      </c>
-      <c r="I109" s="32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="110" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G110" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G111" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="112" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G112" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="H112" s="32">
-        <f>F68+F71</f>
-        <v>772.45</v>
-      </c>
-      <c r="I112" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G113" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B62" r:id="rId1" xr:uid="{31584BB2-B7E7-4133-B487-37CDDD4F8072}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>
--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB59B10A-A6FB-4CBF-A7F9-F6996F1A0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A71C932-A49A-4956-BDEA-5C9D7262EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1725" windowWidth="18645" windowHeight="9765" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1575" windowWidth="15870" windowHeight="16425" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Data" sheetId="2" r:id="rId11"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1720,7 +1720,7 @@
         <v>109</v>
       </c>
       <c r="C1" s="24">
-        <v>45301</v>
+        <v>45348</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>100</v>
@@ -5506,7 +5506,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,8 +5653,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="14">
-        <f>B12</f>
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,8 +5679,8 @@
         <v>92</v>
       </c>
       <c r="B19" s="14">
-        <f>9*10^12</f>
-        <v>9000000000000</v>
+        <f>B2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5707,7 +5706,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="14">
-        <f>IF(INDEX('coal ban'!D:D,MATCH(About!$B$2,'coal ban'!C:C,0))="yes",0,9*10^12)</f>
+        <f>B2</f>
         <v>0</v>
       </c>
     </row>
@@ -5748,8 +5747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C333C710-6A53-4C92-917A-049B0A9C4CC8}">
   <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,7 +5970,7 @@
         <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -6169,7 +6168,7 @@
         <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
